--- a/功能介绍-0823.xlsx
+++ b/功能介绍-0823.xlsx
@@ -635,30 +635,6 @@
   </si>
   <si>
     <r>
-      <t>1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通讯费管理：主要处理通讯费管理业务。</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>2)</t>
     </r>
     <r>
@@ -996,6 +972,31 @@
   </si>
   <si>
     <t>后台综合管理系统--29号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通讯费管理：主要处理通讯费管理业务。</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1406,7 +1407,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1614,13 +1615,13 @@
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1629,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1638,7 +1639,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1647,7 +1648,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1656,7 +1657,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1665,18 +1666,18 @@
         <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1685,7 +1686,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1694,7 +1695,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1703,7 +1704,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1712,27 +1713,27 @@
         <v>29</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/功能介绍-0823.xlsx
+++ b/功能介绍-0823.xlsx
@@ -76,16 +76,10 @@
     <t>22）通讯费管理模块、</t>
   </si>
   <si>
-    <t>23）款项批量处理管理模块、</t>
-  </si>
-  <si>
     <t>24）固定资产管理模块、</t>
   </si>
   <si>
     <t>25）银行卡信息管理模块、</t>
-  </si>
-  <si>
-    <t>26）耗材在线订单周结算管理模块、</t>
   </si>
   <si>
     <t>27）网点保险费、</t>
@@ -967,10 +961,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>财务子系统--27号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>后台综合管理系统--29号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -997,6 +987,18 @@
       </rPr>
       <t>通讯费管理：主要处理通讯费管理业务。</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26）耗材在线订单周结算管理模块、</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务子系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23）款项批量处理管理模块、</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1407,7 +1409,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1420,22 +1422,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1444,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1453,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1462,18 +1464,18 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1482,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1491,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1500,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1509,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1518,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1527,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1536,18 +1538,18 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1556,7 +1558,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1565,7 +1567,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1574,7 +1576,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1583,7 +1585,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1592,7 +1594,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1601,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1610,130 +1612,130 @@
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
